--- a/KittingToolResources/SourceChecklists/TAP223-001G62-040RC Cableset (KittingTool).xlsx
+++ b/KittingToolResources/SourceChecklists/TAP223-001G62-040RC Cableset (KittingTool).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingToolCLOSEDSOURCE\KittingTool\KittingToolResources\SourceChecklists\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Work\KittingSystemRepository\KittingToolResources\SourceChecklists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597059F2-20F8-4D20-9014-5FB2D6DC522F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF186779-7B18-47DE-8977-EF1CD3C7A195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6D020447-F18D-4C6A-8D94-0713DB4A8EBC}"/>
   </bookViews>
@@ -217,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -244,22 +244,52 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,7 +607,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -612,39 +642,39 @@
       <c r="G1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
